--- a/ガントチャート,仕様書/仕様書.xlsx
+++ b/ガントチャート,仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\就活作品制作関連\2024_recruit_project\ガントチャート,仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD031C5-4107-4077-B468-11457515D20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF472260-4DB7-4C3D-888C-469D2A9AA827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="8100" firstSheet="2" activeTab="10" xr2:uid="{E5B1206E-39A2-45BF-8945-ADBF80AA75EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="8100" firstSheet="7" activeTab="10" xr2:uid="{E5B1206E-39A2-45BF-8945-ADBF80AA75EC}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -297,6 +297,170 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接</t>
+    <rPh sb="0" eb="2">
+      <t>キンセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ、歩行、攻撃、二段攻撃、ダメージ、死亡</t>
+    <rPh sb="5" eb="7">
+      <t>ホコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ニダンコウゲキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩行、攻撃、ダメージ、死亡</t>
+    <rPh sb="0" eb="2">
+      <t>ホコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩行、攻撃、ガード、ダメージ、死亡</t>
+    <rPh sb="0" eb="2">
+      <t>ホコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常攻撃</t>
+    <rPh sb="0" eb="4">
+      <t>ツウジョウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常派生攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蹴る。当たると跳びあがる</t>
+    <rPh sb="0" eb="1">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度上から攻撃する</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁キック派生攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁キック派生溜め攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くの敵にロックオンしてライダーキック</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲を見渡して狙った敵にロックオン</t>
+    <rPh sb="0" eb="2">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミワタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1066,34 +1230,46 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1102,6 +1278,27 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,48 +1312,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1195,16 +1350,34 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,12 +1386,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1226,9 +1393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1787,7 +1951,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>402456</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2340,10 +2504,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2362,182 +2526,269 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D402A78-0C4C-4844-8E39-1D318C0E11CD}">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="12.09765625" customWidth="1"/>
+    <col min="14" max="14" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="37.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="2:14" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:14" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="47" t="s">
+      <c r="K4" s="64"/>
+      <c r="L4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" spans="2:14" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="66"/>
+      <c r="L6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="71" t="s">
+      <c r="K7" s="71"/>
+      <c r="L7" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
     </row>
     <row r="8" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="69" t="s">
+      <c r="K8" s="61"/>
+      <c r="L8" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="74"/>
-      <c r="N8" s="70"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="61"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J9" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="61"/>
+      <c r="L9" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="62"/>
+      <c r="N9" s="61"/>
+    </row>
+    <row r="10" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J10" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="61"/>
+      <c r="L10" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="62"/>
+      <c r="N10" s="61"/>
+    </row>
+    <row r="11" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J11" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="61"/>
+      <c r="L11" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="62"/>
+      <c r="N11" s="61"/>
+    </row>
+    <row r="12" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J12" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="61"/>
+      <c r="L12" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="62"/>
+      <c r="N12" s="61"/>
+    </row>
+    <row r="13" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="61"/>
     </row>
     <row r="14" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="25">
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G19"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B2:C2" location="目次!A1" display="目次に戻る" xr:uid="{CC06EB11-04D4-43FC-8B36-C2E2DEB81EB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F480864-5B13-4BD7-8A91-7BA73E766C23}">
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
@@ -2547,6 +2798,7 @@
     <hyperlink ref="B2:C2" location="目次!A1" display="目次に戻る" xr:uid="{0330DB46-7E39-4A19-AD64-E67B8AEAE7E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2562,10 +2814,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2596,10 +2848,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2626,10 +2878,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2656,10 +2908,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2679,133 +2931,130 @@
   <dimension ref="D2:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:K7"/>
+      <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="4:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="4:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="6" spans="4:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="4:11" ht="40.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="I7" s="21" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="I7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="4:11" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="I8" s="21" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="I8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="4:11" ht="37.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="I9" s="21" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="I9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="4:11" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="I10" s="21" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="I10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="4:11" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="I11" s="21" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="I11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="4:11" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="I12" s="21" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="I12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="4:11" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="4:11" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E3:J4"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
@@ -2814,13 +3063,16 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="E3:J4"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -2848,24 +3100,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BC8E4-012F-4D12-B11B-39165E8963B5}">
   <dimension ref="B1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:4" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2894,10 +3146,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2924,10 +3176,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2954,10 +3206,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2984,10 +3236,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3014,10 +3266,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3044,10 +3296,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>

--- a/ガントチャート,仕様書/仕様書.xlsx
+++ b/ガントチャート,仕様書/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\就活作品制作関連\2024_recruit_project\ガントチャート,仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF472260-4DB7-4C3D-888C-469D2A9AA827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31868D11-6710-4C6A-831B-9606ADF12C37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="8100" firstSheet="7" activeTab="10" xr2:uid="{E5B1206E-39A2-45BF-8945-ADBF80AA75EC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -461,6 +461,35 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ派生攻撃</t>
+    <rPh sb="4" eb="6">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプから派生。足を回して回転蹴り</t>
+    <rPh sb="6" eb="8">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゲ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2526,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D402A78-0C4C-4844-8E39-1D318C0E11CD}">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:N12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2658,9 +2687,13 @@
       <c r="N12" s="61"/>
     </row>
     <row r="13" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J13" s="60"/>
+      <c r="J13" s="60" t="s">
+        <v>47</v>
+      </c>
       <c r="K13" s="61"/>
-      <c r="L13" s="60"/>
+      <c r="L13" s="60" t="s">
+        <v>48</v>
+      </c>
       <c r="M13" s="62"/>
       <c r="N13" s="61"/>
     </row>

--- a/ガントチャート,仕様書/仕様書.xlsx
+++ b/ガントチャート,仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\就活作品制作関連\2024_recruit_project\ガントチャート,仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31868D11-6710-4C6A-831B-9606ADF12C37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E9C83A-4263-4BFE-BF15-1DE76FEBC761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="8100" firstSheet="7" activeTab="10" xr2:uid="{E5B1206E-39A2-45BF-8945-ADBF80AA75EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="8100" firstSheet="7" activeTab="11" xr2:uid="{E5B1206E-39A2-45BF-8945-ADBF80AA75EC}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -490,6 +490,64 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>ゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライディング派生攻撃</t>
+    <rPh sb="7" eb="11">
+      <t>ハセイコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライディングから派生</t>
+    <rPh sb="9" eb="11">
+      <t>ハセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近距離チャージ</t>
+    <rPh sb="0" eb="3">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ、歩行、溜め、突撃攻撃、ダメージ、死亡</t>
+    <rPh sb="5" eb="7">
+      <t>ホコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トツゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シボウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -684,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -999,121 +1057,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -1143,17 +1086,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1167,7 +1099,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1177,13 +1109,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1198,7 +1175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,6 +1236,15 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,55 +1278,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,50 +1326,104 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1980,7 +1981,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>402456</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2526,7 +2527,7 @@
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2553,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D402A78-0C4C-4844-8E39-1D318C0E11CD}">
-  <dimension ref="B1:N19"/>
+  <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2565,190 +2566,272 @@
     <col min="14" max="14" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="37.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="42" t="s">
+    <row r="1" spans="2:21" ht="37.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="2:14" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+    </row>
+    <row r="2" spans="2:21" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="2:14" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J3" s="36" t="s">
+    <row r="3" spans="2:21" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
-    </row>
-    <row r="4" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+    </row>
+    <row r="4" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J4" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="39" t="s">
+      <c r="K4" s="73"/>
+      <c r="L4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-    </row>
-    <row r="5" spans="2:14" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="J5" s="43" t="s">
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
+      <c r="Q4" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="61"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="37"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="J5" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="65"/>
+      <c r="L5" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="J6" s="65" t="s">
+      <c r="M5" s="71"/>
+      <c r="N5" s="65"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="J6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69"/>
-    </row>
-    <row r="7" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J7" s="70" t="s">
+      <c r="M6" s="51"/>
+      <c r="N6" s="52"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="J7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="71"/>
+      <c r="K7" s="66"/>
       <c r="L7" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
-    </row>
-    <row r="8" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J8" s="60" t="s">
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="J8" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="60" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="67" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="62"/>
-      <c r="N8" s="61"/>
-    </row>
-    <row r="9" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J9" s="60" t="s">
+      <c r="N8" s="68"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="J9" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="60" t="s">
+      <c r="K9" s="68"/>
+      <c r="L9" s="67" t="s">
         <v>41</v>
       </c>
       <c r="M9" s="62"/>
-      <c r="N9" s="61"/>
-    </row>
-    <row r="10" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J10" s="60" t="s">
+      <c r="N9" s="68"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="J10" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="60" t="s">
+      <c r="K10" s="68"/>
+      <c r="L10" s="67" t="s">
         <v>42</v>
       </c>
       <c r="M10" s="62"/>
-      <c r="N10" s="61"/>
-    </row>
-    <row r="11" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J11" s="60" t="s">
+      <c r="N10" s="68"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="J11" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="60" t="s">
+      <c r="K11" s="68"/>
+      <c r="L11" s="67" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="62"/>
-      <c r="N11" s="61"/>
-    </row>
-    <row r="12" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J12" s="60" t="s">
+      <c r="N11" s="68"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="J12" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="60" t="s">
+      <c r="K12" s="68"/>
+      <c r="L12" s="67" t="s">
         <v>46</v>
       </c>
       <c r="M12" s="62"/>
-      <c r="N12" s="61"/>
-    </row>
-    <row r="13" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J13" s="60" t="s">
+      <c r="N12" s="68"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="J13" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="60" t="s">
+      <c r="K13" s="68"/>
+      <c r="L13" s="67" t="s">
         <v>48</v>
       </c>
       <c r="M13" s="62"/>
-      <c r="N13" s="61"/>
-    </row>
-    <row r="14" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="48" t="s">
+      <c r="N13" s="68"/>
+    </row>
+    <row r="14" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J14" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="68"/>
+      <c r="L14" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="62"/>
+      <c r="N14" s="68"/>
+    </row>
+    <row r="15" spans="2:21" ht="27" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-    </row>
-    <row r="16" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="51" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="68"/>
+    </row>
+    <row r="16" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-    </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-    </row>
-    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="68"/>
+    </row>
+    <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="68"/>
+    </row>
+    <row r="18" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="68"/>
+    </row>
+    <row r="19" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="68"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="68"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="68"/>
+    </row>
+    <row r="22" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J22" s="74"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G19"/>
+  <mergeCells count="45">
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:N11"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="J4:K4"/>
@@ -2756,19 +2839,20 @@
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G19"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -2782,49 +2866,121 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F480864-5B13-4BD7-8A91-7BA73E766C23}">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="14.296875" customWidth="1"/>
+    <col min="9" max="9" width="23.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D5" t="s">
+    <row r="3" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D4" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D5" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="77" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D6" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D6" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="62" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D7" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="62" t="s">
         <v>38</v>
       </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D8" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D9" s="82"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D10" s="82"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D11" s="82"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D12" s="82"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -2971,131 +3127,123 @@
   <sheetData>
     <row r="2" spans="4:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="4:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="6" spans="4:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="4:11" ht="40.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="I7" s="20" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="I7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="4:11" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="I8" s="20" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="I8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="4:11" ht="37.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="I9" s="20" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="I9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="4:11" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="I10" s="20" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="I10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="4:11" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="I11" s="20" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="I11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="4:11" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="I12" s="20" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="I12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="4:11" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="4:11" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="E3:J4"/>
@@ -3106,6 +3254,14 @@
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3322,7 +3478,7 @@
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/ガントチャート,仕様書/仕様書.xlsx
+++ b/ガントチャート,仕様書/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\就活作品制作関連\2024_recruit_project\ガントチャート,仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E9C83A-4263-4BFE-BF15-1DE76FEBC761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA6E4E-C8DA-4FB8-B7D1-222652463FD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="8100" firstSheet="7" activeTab="11" xr2:uid="{E5B1206E-39A2-45BF-8945-ADBF80AA75EC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -548,6 +548,62 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大型状態</t>
+    <rPh sb="0" eb="4">
+      <t>オオガタジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人型状態</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトガタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーツを二つほどくっつけたボス</t>
+    <rPh sb="4" eb="5">
+      <t>フタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常、攻撃、ダメージ、崩壊</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -742,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1166,6 +1222,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1175,10 +1268,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,6 +1335,39 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,49 +1377,97 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,104 +1506,38 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2359,152 +2473,152 @@
   <sheetData>
     <row r="2" spans="4:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="4:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="4:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="4:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="4:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="4:10" ht="37.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="4:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2534,10 +2648,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2567,281 +2681,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="37.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="2:21" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:21" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="69" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
-      <c r="Q4" s="60" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="Q4" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="61"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="37"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="47"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="64" t="s">
+      <c r="K5" s="55"/>
+      <c r="L5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="65"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="50" t="s">
+      <c r="K6" s="60"/>
+      <c r="L6" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="72" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="67" t="s">
+      <c r="K8" s="39"/>
+      <c r="L8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="68"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="68"/>
-      <c r="L9" s="67" t="s">
+      <c r="K9" s="39"/>
+      <c r="L9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="68"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="68"/>
-      <c r="L10" s="67" t="s">
+      <c r="K10" s="39"/>
+      <c r="L10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="68"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="68"/>
-      <c r="L11" s="67" t="s">
+      <c r="K11" s="39"/>
+      <c r="L11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="68"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="67" t="s">
+      <c r="K12" s="39"/>
+      <c r="L12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="68"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="67" t="s">
+      <c r="K13" s="39"/>
+      <c r="L13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="62"/>
-      <c r="N13" s="68"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="67" t="s">
+      <c r="K14" s="39"/>
+      <c r="L14" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="68"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="2:21" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="68"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="68"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="39"/>
     </row>
     <row r="18" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="68"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="39"/>
     </row>
     <row r="19" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="68"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="J20" s="67"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="68"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="68"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="75"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:N13"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G19"/>
     <mergeCell ref="J12:K12"/>
@@ -2853,6 +2933,40 @@
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="L19:N19"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -2866,10 +2980,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F480864-5B13-4BD7-8A91-7BA73E766C23}">
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2880,107 +2994,156 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D9" s="82"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D10" s="82"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D11" s="82"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D12" s="82"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D16" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D17" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D18" s="85"/>
+      <c r="F18" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D19" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3003,10 +3166,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3037,10 +3200,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3067,10 +3230,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3097,10 +3260,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3127,123 +3290,131 @@
   <sheetData>
     <row r="2" spans="4:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="4:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="6" spans="4:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="4:11" ht="40.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="I7" s="23" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="I7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="4:11" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="I8" s="23" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="I8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="4:11" ht="37.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="I9" s="23" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="I9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="4:11" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="I10" s="23" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="I10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="4:11" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="I11" s="23" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="I11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="4:11" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="I12" s="23" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="I12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="4:11" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="4:11" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="E3:J4"/>
@@ -3254,14 +3425,6 @@
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3296,17 +3459,17 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:4" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3335,10 +3498,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3365,10 +3528,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3395,10 +3558,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3425,10 +3588,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3455,10 +3618,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -3485,10 +3648,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
